--- a/EstimatedActiveCasesOverTimeByCounty/2021-03-10.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-03-10.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="353">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 03/09/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 03/10/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Active Cases 03-08</t>
+  </si>
+  <si>
+    <t>Active Cases 03-09</t>
   </si>
   <si>
     <t/>
@@ -1272,6 +1275,7 @@
     <col min="87" max="87" width="12.0" customWidth="true"/>
     <col min="88" max="88" width="12.0" customWidth="true"/>
     <col min="89" max="89" width="12.0" customWidth="true"/>
+    <col min="90" max="90" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1552,13 +1556,16 @@
       <c r="CK3" t="s" s="10">
         <v>90</v>
       </c>
+      <c r="CL3" t="s" s="10">
+        <v>91</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1820,14 +1827,17 @@
       </c>
       <c r="CK4" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -2089,14 +2099,17 @@
       </c>
       <c r="CK5" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -2358,14 +2371,17 @@
       </c>
       <c r="CK6" t="n">
         <v>234.0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>287.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2627,14 +2643,17 @@
       </c>
       <c r="CK7" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2895,15 +2914,18 @@
         <v>1.0</v>
       </c>
       <c r="CK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -3164,15 +3186,18 @@
         <v>2.0</v>
       </c>
       <c r="CK9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CL9" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -3434,14 +3459,17 @@
       </c>
       <c r="CK10" t="n">
         <v>58.0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -3703,14 +3731,17 @@
       </c>
       <c r="CK11" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3972,14 +4003,17 @@
       </c>
       <c r="CK12" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -4241,14 +4275,17 @@
       </c>
       <c r="CK13" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -4510,14 +4547,17 @@
       </c>
       <c r="CK14" t="n">
         <v>262.0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -4778,15 +4818,18 @@
         <v>0.0</v>
       </c>
       <c r="CK15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -5048,14 +5091,17 @@
       </c>
       <c r="CK16" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -5317,14 +5363,17 @@
       </c>
       <c r="CK17" t="n">
         <v>510.0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>460.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -5586,14 +5635,17 @@
       </c>
       <c r="CK18" t="n">
         <v>5668.0</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>5276.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -5854,15 +5906,18 @@
         <v>15.0</v>
       </c>
       <c r="CK19" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CL19" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -6123,15 +6178,18 @@
         <v>0.0</v>
       </c>
       <c r="CK20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -6393,14 +6451,17 @@
       </c>
       <c r="CK21" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -6662,14 +6723,17 @@
       </c>
       <c r="CK22" t="n">
         <v>515.0</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>502.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -6931,14 +6995,17 @@
       </c>
       <c r="CK23" t="n">
         <v>2573.0</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>2440.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -7200,14 +7267,17 @@
       </c>
       <c r="CK24" t="n">
         <v>897.0</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>881.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -7468,15 +7538,18 @@
         <v>21.0</v>
       </c>
       <c r="CK25" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="CL25" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -7737,15 +7810,18 @@
         <v>5.0</v>
       </c>
       <c r="CK26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CL26" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -8007,14 +8083,17 @@
       </c>
       <c r="CK27" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -8275,15 +8354,18 @@
         <v>69.0</v>
       </c>
       <c r="CK28" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CL28" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -8545,14 +8627,17 @@
       </c>
       <c r="CK29" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CL29" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -8814,14 +8899,17 @@
       </c>
       <c r="CK30" t="n">
         <v>227.0</v>
+      </c>
+      <c r="CL30" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -9083,14 +9171,17 @@
       </c>
       <c r="CK31" t="n">
         <v>142.0</v>
+      </c>
+      <c r="CL31" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -9352,14 +9443,17 @@
       </c>
       <c r="CK32" t="n">
         <v>47.0</v>
+      </c>
+      <c r="CL32" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -9621,14 +9715,17 @@
       </c>
       <c r="CK33" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CL33" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -9890,14 +9987,17 @@
       </c>
       <c r="CK34" t="n">
         <v>3217.0</v>
+      </c>
+      <c r="CL34" t="n">
+        <v>3077.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -10159,14 +10259,17 @@
       </c>
       <c r="CK35" t="n">
         <v>152.0</v>
+      </c>
+      <c r="CL35" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -10427,15 +10530,18 @@
         <v>18.0</v>
       </c>
       <c r="CK36" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CL36" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -10697,14 +10803,17 @@
       </c>
       <c r="CK37" t="n">
         <v>99.0</v>
+      </c>
+      <c r="CL37" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -10965,15 +11074,18 @@
         <v>12.0</v>
       </c>
       <c r="CK38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CL38" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -11235,14 +11347,17 @@
       </c>
       <c r="CK39" t="n">
         <v>141.0</v>
+      </c>
+      <c r="CL39" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -11503,15 +11618,18 @@
         <v>0.0</v>
       </c>
       <c r="CK40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -11773,14 +11891,17 @@
       </c>
       <c r="CK41" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CL41" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -12042,14 +12163,17 @@
       </c>
       <c r="CK42" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CL42" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -12311,14 +12435,17 @@
       </c>
       <c r="CK43" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CL43" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -12579,15 +12706,18 @@
         <v>32.0</v>
       </c>
       <c r="CK44" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CL44" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -12849,14 +12979,17 @@
       </c>
       <c r="CK45" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CL45" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -13118,14 +13251,17 @@
       </c>
       <c r="CK46" t="n">
         <v>1331.0</v>
+      </c>
+      <c r="CL46" t="n">
+        <v>1363.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -13386,15 +13522,18 @@
         <v>1.0</v>
       </c>
       <c r="CK47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL47" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -13656,14 +13795,17 @@
       </c>
       <c r="CK48" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CL48" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -13925,14 +14067,17 @@
       </c>
       <c r="CK49" t="n">
         <v>411.0</v>
+      </c>
+      <c r="CL49" t="n">
+        <v>387.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -14194,14 +14339,17 @@
       </c>
       <c r="CK50" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CL50" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -14463,14 +14611,17 @@
       </c>
       <c r="CK51" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CL51" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -14731,15 +14882,18 @@
         <v>21.0</v>
       </c>
       <c r="CK52" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CL52" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -15001,14 +15155,17 @@
       </c>
       <c r="CK53" t="n">
         <v>119.0</v>
+      </c>
+      <c r="CL53" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -15269,15 +15426,18 @@
         <v>3.0</v>
       </c>
       <c r="CK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -15539,14 +15699,17 @@
       </c>
       <c r="CK55" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CL55" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -15808,14 +15971,17 @@
       </c>
       <c r="CK56" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CL56" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -16077,14 +16243,17 @@
       </c>
       <c r="CK57" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CL57" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -16346,14 +16515,17 @@
       </c>
       <c r="CK58" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CL58" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -16615,14 +16787,17 @@
       </c>
       <c r="CK59" t="n">
         <v>101.0</v>
+      </c>
+      <c r="CL59" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -16884,14 +17059,17 @@
       </c>
       <c r="CK60" t="n">
         <v>9797.0</v>
+      </c>
+      <c r="CL60" t="n">
+        <v>9599.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -17152,15 +17330,18 @@
         <v>12.0</v>
       </c>
       <c r="CK61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CL61" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -17421,15 +17602,18 @@
         <v>41.0</v>
       </c>
       <c r="CK62" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="CL62" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -17691,14 +17875,17 @@
       </c>
       <c r="CK63" t="n">
         <v>36.0</v>
+      </c>
+      <c r="CL63" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -17960,14 +18147,17 @@
       </c>
       <c r="CK64" t="n">
         <v>11177.0</v>
+      </c>
+      <c r="CL64" t="n">
+        <v>10925.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -18228,15 +18418,18 @@
         <v>18.0</v>
       </c>
       <c r="CK65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CL65" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -18497,15 +18690,18 @@
         <v>3.0</v>
       </c>
       <c r="CK66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CL66" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -18767,14 +18963,17 @@
       </c>
       <c r="CK67" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CL67" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -19035,15 +19234,18 @@
         <v>5.0</v>
       </c>
       <c r="CK68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CL68" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -19305,14 +19507,17 @@
       </c>
       <c r="CK69" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CL69" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -19574,14 +19779,17 @@
       </c>
       <c r="CK70" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CL70" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -19843,14 +20051,17 @@
       </c>
       <c r="CK71" t="n">
         <v>777.0</v>
+      </c>
+      <c r="CL71" t="n">
+        <v>570.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -20111,15 +20322,18 @@
         <v>0.0</v>
       </c>
       <c r="CK72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL72" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -20381,14 +20595,17 @@
       </c>
       <c r="CK73" t="n">
         <v>129.0</v>
+      </c>
+      <c r="CL73" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -20650,14 +20867,17 @@
       </c>
       <c r="CK74" t="n">
         <v>4591.0</v>
+      </c>
+      <c r="CL74" t="n">
+        <v>4101.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -20919,14 +21139,17 @@
       </c>
       <c r="CK75" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CL75" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -21188,14 +21411,17 @@
       </c>
       <c r="CK76" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CL76" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -21457,14 +21683,17 @@
       </c>
       <c r="CK77" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CL77" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -21726,14 +21955,17 @@
       </c>
       <c r="CK78" t="n">
         <v>102.0</v>
+      </c>
+      <c r="CL78" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -21994,15 +22226,18 @@
         <v>0.0</v>
       </c>
       <c r="CK79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -22264,14 +22499,17 @@
       </c>
       <c r="CK80" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CL80" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -22532,15 +22770,18 @@
         <v>0.0</v>
       </c>
       <c r="CK81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -22802,14 +23043,17 @@
       </c>
       <c r="CK82" t="n">
         <v>9695.0</v>
+      </c>
+      <c r="CL82" t="n">
+        <v>9879.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -23071,14 +23315,17 @@
       </c>
       <c r="CK83" t="n">
         <v>98.0</v>
+      </c>
+      <c r="CL83" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -23340,14 +23587,17 @@
       </c>
       <c r="CK84" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CL84" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -23609,14 +23859,17 @@
       </c>
       <c r="CK85" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CL85" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -23877,15 +24130,18 @@
         <v>4.0</v>
       </c>
       <c r="CK86" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CL86" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -24147,14 +24403,17 @@
       </c>
       <c r="CK87" t="n">
         <v>3365.0</v>
+      </c>
+      <c r="CL87" t="n">
+        <v>3411.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -24415,15 +24674,18 @@
         <v>18.0</v>
       </c>
       <c r="CK88" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CL88" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -24685,14 +24947,17 @@
       </c>
       <c r="CK89" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CL89" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -24953,15 +25218,18 @@
         <v>0.0</v>
       </c>
       <c r="CK90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -25222,15 +25490,18 @@
         <v>18.0</v>
       </c>
       <c r="CK91" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CL91" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -25492,14 +25763,17 @@
       </c>
       <c r="CK92" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CL92" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -25761,14 +26035,17 @@
       </c>
       <c r="CK93" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CL93" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -26030,14 +26307,17 @@
       </c>
       <c r="CK94" t="n">
         <v>48.0</v>
+      </c>
+      <c r="CL94" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -26299,14 +26579,17 @@
       </c>
       <c r="CK95" t="n">
         <v>712.0</v>
+      </c>
+      <c r="CL95" t="n">
+        <v>723.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -26568,14 +26851,17 @@
       </c>
       <c r="CK96" t="n">
         <v>100.0</v>
+      </c>
+      <c r="CL96" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -26837,14 +27123,17 @@
       </c>
       <c r="CK97" t="n">
         <v>142.0</v>
+      </c>
+      <c r="CL97" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -27105,15 +27394,18 @@
         <v>34.0</v>
       </c>
       <c r="CK98" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CL98" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -27374,15 +27666,18 @@
         <v>8.0</v>
       </c>
       <c r="CK99" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CL99" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -27644,14 +27939,17 @@
       </c>
       <c r="CK100" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CL100" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -27913,14 +28211,17 @@
       </c>
       <c r="CK101" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CL101" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -28181,15 +28482,18 @@
         <v>0.0</v>
       </c>
       <c r="CK102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -28451,14 +28755,17 @@
       </c>
       <c r="CK103" t="n">
         <v>595.0</v>
+      </c>
+      <c r="CL103" t="n">
+        <v>509.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -28720,14 +29027,17 @@
       </c>
       <c r="CK104" t="n">
         <v>13899.0</v>
+      </c>
+      <c r="CL104" t="n">
+        <v>13604.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -28989,14 +29299,17 @@
       </c>
       <c r="CK105" t="n">
         <v>798.0</v>
+      </c>
+      <c r="CL105" t="n">
+        <v>793.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -29258,14 +29571,17 @@
       </c>
       <c r="CK106" t="n">
         <v>68.0</v>
+      </c>
+      <c r="CL106" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -29526,15 +29842,18 @@
         <v>0.0</v>
       </c>
       <c r="CK107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL107" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -29796,14 +30115,17 @@
       </c>
       <c r="CK108" t="n">
         <v>728.0</v>
+      </c>
+      <c r="CL108" t="n">
+        <v>560.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -30064,15 +30386,18 @@
         <v>4.0</v>
       </c>
       <c r="CK109" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CL109" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -30334,14 +30659,17 @@
       </c>
       <c r="CK110" t="n">
         <v>574.0</v>
+      </c>
+      <c r="CL110" t="n">
+        <v>583.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -30603,14 +30931,17 @@
       </c>
       <c r="CK111" t="n">
         <v>2467.0</v>
+      </c>
+      <c r="CL111" t="n">
+        <v>2400.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -30872,14 +31203,17 @@
       </c>
       <c r="CK112" t="n">
         <v>64.0</v>
+      </c>
+      <c r="CL112" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -31141,14 +31475,17 @@
       </c>
       <c r="CK113" t="n">
         <v>55.0</v>
+      </c>
+      <c r="CL113" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -31410,14 +31747,17 @@
       </c>
       <c r="CK114" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CL114" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -31679,14 +32019,17 @@
       </c>
       <c r="CK115" t="n">
         <v>171.0</v>
+      </c>
+      <c r="CL115" t="n">
+        <v>158.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -31948,14 +32291,17 @@
       </c>
       <c r="CK116" t="n">
         <v>66.0</v>
+      </c>
+      <c r="CL116" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -32217,14 +32563,17 @@
       </c>
       <c r="CK117" t="n">
         <v>44.0</v>
+      </c>
+      <c r="CL117" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -32486,14 +32835,17 @@
       </c>
       <c r="CK118" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CL118" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -32755,14 +33107,17 @@
       </c>
       <c r="CK119" t="n">
         <v>1317.0</v>
+      </c>
+      <c r="CL119" t="n">
+        <v>1316.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -33024,14 +33379,17 @@
       </c>
       <c r="CK120" t="n">
         <v>37.0</v>
+      </c>
+      <c r="CL120" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -33293,14 +33651,17 @@
       </c>
       <c r="CK121" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CL121" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -33562,14 +33923,17 @@
       </c>
       <c r="CK122" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CL122" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -33831,14 +34195,17 @@
       </c>
       <c r="CK123" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CL123" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -34099,15 +34466,18 @@
         <v>11.0</v>
       </c>
       <c r="CK124" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CL124" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -34368,15 +34738,18 @@
         <v>22.0</v>
       </c>
       <c r="CK125" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CL125" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -34638,14 +35011,17 @@
       </c>
       <c r="CK126" t="n">
         <v>881.0</v>
+      </c>
+      <c r="CL126" t="n">
+        <v>883.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -34907,14 +35283,17 @@
       </c>
       <c r="CK127" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CL127" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B128" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -35176,14 +35555,17 @@
       </c>
       <c r="CK128" t="n">
         <v>137.0</v>
+      </c>
+      <c r="CL128" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -35445,14 +35827,17 @@
       </c>
       <c r="CK129" t="n">
         <v>120.0</v>
+      </c>
+      <c r="CL129" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -35714,14 +36099,17 @@
       </c>
       <c r="CK130" t="n">
         <v>128.0</v>
+      </c>
+      <c r="CL130" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -35983,14 +36371,17 @@
       </c>
       <c r="CK131" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CL131" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B132" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -36252,14 +36643,17 @@
       </c>
       <c r="CK132" t="n">
         <v>114.0</v>
+      </c>
+      <c r="CL132" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -36521,14 +36915,17 @@
       </c>
       <c r="CK133" t="n">
         <v>51.0</v>
+      </c>
+      <c r="CL133" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B134" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -36789,15 +37186,18 @@
         <v>0.0</v>
       </c>
       <c r="CK134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B135" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -37058,15 +37458,18 @@
         <v>1.0</v>
       </c>
       <c r="CK135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CL135" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -37328,14 +37731,17 @@
       </c>
       <c r="CK136" t="n">
         <v>45.0</v>
+      </c>
+      <c r="CL136" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B137" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -37597,14 +38003,17 @@
       </c>
       <c r="CK137" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CL137" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B138" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -37865,15 +38274,18 @@
         <v>0.0</v>
       </c>
       <c r="CK138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B139" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -38134,15 +38546,18 @@
         <v>0.0</v>
       </c>
       <c r="CK139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -38403,15 +38818,18 @@
         <v>78.0</v>
       </c>
       <c r="CK140" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="CL140" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -38672,15 +39090,18 @@
         <v>0.0</v>
       </c>
       <c r="CK141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B142" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -38942,14 +39363,17 @@
       </c>
       <c r="CK142" t="n">
         <v>178.0</v>
+      </c>
+      <c r="CL142" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B143" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -39210,15 +39634,18 @@
         <v>41.0</v>
       </c>
       <c r="CK143" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CL143" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B144" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -39480,14 +39907,17 @@
       </c>
       <c r="CK144" t="n">
         <v>65.0</v>
+      </c>
+      <c r="CL144" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B145" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -39749,14 +40179,17 @@
       </c>
       <c r="CK145" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CL145" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B146" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -40018,14 +40451,17 @@
       </c>
       <c r="CK146" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CL146" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B147" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -40287,14 +40723,17 @@
       </c>
       <c r="CK147" t="n">
         <v>130.0</v>
+      </c>
+      <c r="CL147" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B148" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -40556,14 +40995,17 @@
       </c>
       <c r="CK148" t="n">
         <v>40.0</v>
+      </c>
+      <c r="CL148" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B149" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -40825,14 +41267,17 @@
       </c>
       <c r="CK149" t="n">
         <v>113.0</v>
+      </c>
+      <c r="CL149" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B150" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -41094,14 +41539,17 @@
       </c>
       <c r="CK150" t="n">
         <v>82.0</v>
+      </c>
+      <c r="CL150" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B151" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -41363,14 +41811,17 @@
       </c>
       <c r="CK151" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CL151" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B152" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -41632,14 +42083,17 @@
       </c>
       <c r="CK152" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CL152" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -41901,14 +42355,17 @@
       </c>
       <c r="CK153" t="n">
         <v>76.0</v>
+      </c>
+      <c r="CL153" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B154" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -42169,15 +42626,18 @@
         <v>0.0</v>
       </c>
       <c r="CK154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -42439,14 +42899,17 @@
       </c>
       <c r="CK155" t="n">
         <v>187.0</v>
+      </c>
+      <c r="CL155" t="n">
+        <v>180.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B156" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -42707,15 +43170,18 @@
         <v>6.0</v>
       </c>
       <c r="CK156" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CL156" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B157" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -42977,14 +43443,17 @@
       </c>
       <c r="CK157" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CL157" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B158" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -43246,14 +43715,17 @@
       </c>
       <c r="CK158" t="n">
         <v>70.0</v>
+      </c>
+      <c r="CL158" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B159" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -43514,15 +43986,18 @@
         <v>2.0</v>
       </c>
       <c r="CK159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL159" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B160" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -43784,14 +44259,17 @@
       </c>
       <c r="CK160" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CL160" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B161" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -44052,15 +44530,18 @@
         <v>107.0</v>
       </c>
       <c r="CK161" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="CL161" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B162" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -44322,14 +44803,17 @@
       </c>
       <c r="CK162" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CL162" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B163" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -44591,14 +45075,17 @@
       </c>
       <c r="CK163" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CL163" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B164" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -44860,14 +45347,17 @@
       </c>
       <c r="CK164" t="n">
         <v>51.0</v>
+      </c>
+      <c r="CL164" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B165" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -45128,15 +45618,18 @@
         <v>927.0</v>
       </c>
       <c r="CK165" t="n">
+        <v>893.0</v>
+      </c>
+      <c r="CL165" t="n">
         <v>893.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B166" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -45398,14 +45891,17 @@
       </c>
       <c r="CK166" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CL166" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B167" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -45667,14 +46163,17 @@
       </c>
       <c r="CK167" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CL167" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B168" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -45936,14 +46435,17 @@
       </c>
       <c r="CK168" t="n">
         <v>567.0</v>
+      </c>
+      <c r="CL168" t="n">
+        <v>568.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B169" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -46204,15 +46706,18 @@
         <v>33.0</v>
       </c>
       <c r="CK169" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CL169" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B170" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -46474,14 +46979,17 @@
       </c>
       <c r="CK170" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CL170" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B171" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -46743,14 +47251,17 @@
       </c>
       <c r="CK171" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CL171" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B172" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -47011,15 +47522,18 @@
         <v>22.0</v>
       </c>
       <c r="CK172" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CL172" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B173" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -47281,14 +47795,17 @@
       </c>
       <c r="CK173" t="n">
         <v>22607.0</v>
+      </c>
+      <c r="CL173" t="n">
+        <v>22608.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B174" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -47549,15 +48066,18 @@
         <v>45.0</v>
       </c>
       <c r="CK174" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CL174" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B175" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -47819,14 +48339,17 @@
       </c>
       <c r="CK175" t="n">
         <v>103.0</v>
+      </c>
+      <c r="CL175" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B176" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -48087,15 +48610,18 @@
         <v>1.0</v>
       </c>
       <c r="CK176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL176" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B177" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -48357,14 +48883,17 @@
       </c>
       <c r="CK177" t="n">
         <v>299.0</v>
+      </c>
+      <c r="CL177" t="n">
+        <v>293.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -48625,15 +49154,18 @@
         <v>137.0</v>
       </c>
       <c r="CK178" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="CL178" t="n">
         <v>137.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -48894,15 +49426,18 @@
         <v>0.0</v>
       </c>
       <c r="CK179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL179" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -49164,14 +49699,17 @@
       </c>
       <c r="CK180" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CL180" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B181" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -49433,14 +49971,17 @@
       </c>
       <c r="CK181" t="n">
         <v>1046.0</v>
+      </c>
+      <c r="CL181" t="n">
+        <v>1042.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B182" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -49701,15 +50242,18 @@
         <v>9.0</v>
       </c>
       <c r="CK182" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CL182" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B183" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -49971,14 +50515,17 @@
       </c>
       <c r="CK183" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CL183" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B184" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -50239,15 +50786,18 @@
         <v>368.0</v>
       </c>
       <c r="CK184" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="CL184" t="n">
         <v>368.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -50509,14 +51059,17 @@
       </c>
       <c r="CK185" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CL185" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -50778,14 +51331,17 @@
       </c>
       <c r="CK186" t="n">
         <v>110.0</v>
+      </c>
+      <c r="CL186" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -51047,14 +51603,17 @@
       </c>
       <c r="CK187" t="n">
         <v>98.0</v>
+      </c>
+      <c r="CL187" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -51315,15 +51874,18 @@
         <v>9.0</v>
       </c>
       <c r="CK188" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CL188" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B189" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -51585,14 +52147,17 @@
       </c>
       <c r="CK189" t="n">
         <v>80.0</v>
+      </c>
+      <c r="CL189" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B190" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -51854,14 +52419,17 @@
       </c>
       <c r="CK190" t="n">
         <v>80.0</v>
+      </c>
+      <c r="CL190" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B191" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -52123,14 +52691,17 @@
       </c>
       <c r="CK191" t="n">
         <v>222.0</v>
+      </c>
+      <c r="CL191" t="n">
+        <v>221.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B192" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -52392,14 +52963,17 @@
       </c>
       <c r="CK192" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CL192" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B193" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -52661,14 +53235,17 @@
       </c>
       <c r="CK193" t="n">
         <v>61.0</v>
+      </c>
+      <c r="CL193" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B194" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -52930,14 +53507,17 @@
       </c>
       <c r="CK194" t="n">
         <v>237.0</v>
+      </c>
+      <c r="CL194" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B195" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -53199,14 +53779,17 @@
       </c>
       <c r="CK195" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CL195" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B196" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -53467,15 +54050,18 @@
         <v>3.0</v>
       </c>
       <c r="CK196" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CL196" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B197" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -53736,15 +54322,18 @@
         <v>14.0</v>
       </c>
       <c r="CK197" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CL197" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B198" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -54006,14 +54595,17 @@
       </c>
       <c r="CK198" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CL198" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B199" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -54275,14 +54867,17 @@
       </c>
       <c r="CK199" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CL199" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B200" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -54543,15 +55138,18 @@
         <v>1.0</v>
       </c>
       <c r="CK200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B201" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -54813,14 +55411,17 @@
       </c>
       <c r="CK201" t="n">
         <v>47.0</v>
+      </c>
+      <c r="CL201" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B202" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -55082,14 +55683,17 @@
       </c>
       <c r="CK202" t="n">
         <v>119.0</v>
+      </c>
+      <c r="CL202" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B203" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -55351,14 +55955,17 @@
       </c>
       <c r="CK203" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CL203" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B204" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -55620,14 +56227,17 @@
       </c>
       <c r="CK204" t="n">
         <v>359.0</v>
+      </c>
+      <c r="CL204" t="n">
+        <v>343.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B205" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -55888,15 +56498,18 @@
         <v>0.0</v>
       </c>
       <c r="CK205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B206" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -56158,14 +56771,17 @@
       </c>
       <c r="CK206" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CL206" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B207" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -56427,14 +57043,17 @@
       </c>
       <c r="CK207" t="n">
         <v>182.0</v>
+      </c>
+      <c r="CL207" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B208" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -56695,15 +57314,18 @@
         <v>71.0</v>
       </c>
       <c r="CK208" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="CL208" t="n">
         <v>71.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B209" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -56964,15 +57586,18 @@
         <v>0.0</v>
       </c>
       <c r="CK209" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL209" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B210" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -57234,14 +57859,17 @@
       </c>
       <c r="CK210" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CL210" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B211" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -57502,15 +58130,18 @@
         <v>0.0</v>
       </c>
       <c r="CK211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B212" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -57772,14 +58403,17 @@
       </c>
       <c r="CK212" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CL212" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B213" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -58041,14 +58675,17 @@
       </c>
       <c r="CK213" t="n">
         <v>88.0</v>
+      </c>
+      <c r="CL213" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B214" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -58309,15 +58946,18 @@
         <v>44.0</v>
       </c>
       <c r="CK214" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="CL214" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B215" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -58579,14 +59219,17 @@
       </c>
       <c r="CK215" t="n">
         <v>1517.0</v>
+      </c>
+      <c r="CL215" t="n">
+        <v>1556.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B216" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -58848,14 +59491,17 @@
       </c>
       <c r="CK216" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CL216" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B217" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -59117,14 +59763,17 @@
       </c>
       <c r="CK217" t="n">
         <v>272.0</v>
+      </c>
+      <c r="CL217" t="n">
+        <v>254.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B218" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -59386,14 +60035,17 @@
       </c>
       <c r="CK218" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CL218" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B219" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -59654,15 +60306,18 @@
         <v>3.0</v>
       </c>
       <c r="CK219" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CL219" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B220" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -59923,15 +60578,18 @@
         <v>0.0</v>
       </c>
       <c r="CK220" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL220" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B221" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -60192,15 +60850,18 @@
         <v>17.0</v>
       </c>
       <c r="CK221" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CL221" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B222" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -60461,15 +61122,18 @@
         <v>15.0</v>
       </c>
       <c r="CK222" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CL222" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B223" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -60731,14 +61395,17 @@
       </c>
       <c r="CK223" t="n">
         <v>10638.0</v>
+      </c>
+      <c r="CL223" t="n">
+        <v>10169.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B224" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -61000,14 +61667,17 @@
       </c>
       <c r="CK224" t="n">
         <v>510.0</v>
+      </c>
+      <c r="CL224" t="n">
+        <v>476.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -61268,15 +61938,18 @@
         <v>0.0</v>
       </c>
       <c r="CK225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B226" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -61537,15 +62210,18 @@
         <v>3.0</v>
       </c>
       <c r="CK226" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CL226" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B227" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -61807,14 +62483,17 @@
       </c>
       <c r="CK227" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CL227" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -62076,14 +62755,17 @@
       </c>
       <c r="CK228" t="n">
         <v>369.0</v>
+      </c>
+      <c r="CL228" t="n">
+        <v>362.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -62345,14 +63027,17 @@
       </c>
       <c r="CK229" t="n">
         <v>170.0</v>
+      </c>
+      <c r="CL229" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -62614,14 +63299,17 @@
       </c>
       <c r="CK230" t="n">
         <v>1411.0</v>
+      </c>
+      <c r="CL230" t="n">
+        <v>1260.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B231" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -62883,14 +63571,17 @@
       </c>
       <c r="CK231" t="n">
         <v>67.0</v>
+      </c>
+      <c r="CL231" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B232" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -63152,14 +63843,17 @@
       </c>
       <c r="CK232" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CL232" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B233" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -63421,14 +64115,17 @@
       </c>
       <c r="CK233" t="n">
         <v>459.0</v>
+      </c>
+      <c r="CL233" t="n">
+        <v>454.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B234" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -63690,14 +64387,17 @@
       </c>
       <c r="CK234" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CL234" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B235" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -63958,15 +64658,18 @@
         <v>12.0</v>
       </c>
       <c r="CK235" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CL235" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B236" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -64228,14 +64931,17 @@
       </c>
       <c r="CK236" t="n">
         <v>170.0</v>
+      </c>
+      <c r="CL236" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B237" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -64497,14 +65203,17 @@
       </c>
       <c r="CK237" t="n">
         <v>415.0</v>
+      </c>
+      <c r="CL237" t="n">
+        <v>425.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B238" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -64766,14 +65475,17 @@
       </c>
       <c r="CK238" t="n">
         <v>126.0</v>
+      </c>
+      <c r="CL238" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B239" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -65035,14 +65747,17 @@
       </c>
       <c r="CK239" t="n">
         <v>72.0</v>
+      </c>
+      <c r="CL239" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B240" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -65304,14 +66019,17 @@
       </c>
       <c r="CK240" t="n">
         <v>82.0</v>
+      </c>
+      <c r="CL240" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B241" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -65573,14 +66291,17 @@
       </c>
       <c r="CK241" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CL241" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B242" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -65842,14 +66563,17 @@
       </c>
       <c r="CK242" t="n">
         <v>110.0</v>
+      </c>
+      <c r="CL242" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B243" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -66111,14 +66835,17 @@
       </c>
       <c r="CK243" t="n">
         <v>716.0</v>
+      </c>
+      <c r="CL243" t="n">
+        <v>717.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B244" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -66380,14 +67107,17 @@
       </c>
       <c r="CK244" t="n">
         <v>42.0</v>
+      </c>
+      <c r="CL244" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B245" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -66649,14 +67379,17 @@
       </c>
       <c r="CK245" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CL245" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B246" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -66918,14 +67651,17 @@
       </c>
       <c r="CK246" t="n">
         <v>133.0</v>
+      </c>
+      <c r="CL246" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B247" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -67186,15 +67922,18 @@
         <v>3.0</v>
       </c>
       <c r="CK247" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CL247" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B248" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -67456,14 +68195,17 @@
       </c>
       <c r="CK248" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CL248" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B249" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -67724,15 +68466,18 @@
         <v>0.0</v>
       </c>
       <c r="CK249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL249" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B250" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -67994,14 +68739,17 @@
       </c>
       <c r="CK250" t="n">
         <v>48.0</v>
+      </c>
+      <c r="CL250" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B251" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -68263,14 +69011,17 @@
       </c>
       <c r="CK251" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CL251" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B252" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -68532,14 +69283,17 @@
       </c>
       <c r="CK252" t="n">
         <v>36.0</v>
+      </c>
+      <c r="CL252" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B253" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -68801,14 +69555,17 @@
       </c>
       <c r="CK253" t="n">
         <v>306.0</v>
+      </c>
+      <c r="CL253" t="n">
+        <v>313.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B254" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -69069,15 +69826,18 @@
         <v>9.0</v>
       </c>
       <c r="CK254" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CL254" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B255" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -69338,15 +70098,18 @@
         <v>5.0</v>
       </c>
       <c r="CK255" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL255" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B256" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -69608,14 +70371,17 @@
       </c>
       <c r="CK256" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CL256" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B257" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -69877,14 +70643,17 @@
       </c>
       <c r="CK257" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CL257" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B258" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -69973,13 +70742,14 @@
       <c r="CI258"/>
       <c r="CJ258"/>
       <c r="CK258"/>
+      <c r="CL258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B259" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -70068,13 +70838,14 @@
       <c r="CI259"/>
       <c r="CJ259"/>
       <c r="CK259"/>
+      <c r="CL259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B260" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -70163,13 +70934,14 @@
       <c r="CI260"/>
       <c r="CJ260"/>
       <c r="CK260"/>
+      <c r="CL260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B261" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -70258,13 +71030,14 @@
       <c r="CI261"/>
       <c r="CJ261"/>
       <c r="CK261"/>
+      <c r="CL261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B262" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -70353,13 +71126,14 @@
       <c r="CI262"/>
       <c r="CJ262"/>
       <c r="CK262"/>
+      <c r="CL262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B263" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -70448,13 +71222,14 @@
       <c r="CI263"/>
       <c r="CJ263"/>
       <c r="CK263"/>
+      <c r="CL263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B264" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -70543,13 +71318,14 @@
       <c r="CI264"/>
       <c r="CJ264"/>
       <c r="CK264"/>
+      <c r="CL264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B265" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -70638,13 +71414,14 @@
       <c r="CI265"/>
       <c r="CJ265"/>
       <c r="CK265"/>
+      <c r="CL265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B266" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -70733,13 +71510,14 @@
       <c r="CI266"/>
       <c r="CJ266"/>
       <c r="CK266"/>
+      <c r="CL266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B267" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -70828,13 +71606,14 @@
       <c r="CI267"/>
       <c r="CJ267"/>
       <c r="CK267"/>
+      <c r="CL267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B268" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -70923,13 +71702,14 @@
       <c r="CI268"/>
       <c r="CJ268"/>
       <c r="CK268"/>
+      <c r="CL268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B269" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -71018,13 +71798,14 @@
       <c r="CI269"/>
       <c r="CJ269"/>
       <c r="CK269"/>
+      <c r="CL269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B270" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -71113,13 +71894,14 @@
       <c r="CI270"/>
       <c r="CJ270"/>
       <c r="CK270"/>
+      <c r="CL270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B271" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -71208,13 +71990,14 @@
       <c r="CI271"/>
       <c r="CJ271"/>
       <c r="CK271"/>
+      <c r="CL271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B272" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -71303,13 +72086,14 @@
       <c r="CI272"/>
       <c r="CJ272"/>
       <c r="CK272"/>
+      <c r="CL272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B273" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -71398,13 +72182,14 @@
       <c r="CI273"/>
       <c r="CJ273"/>
       <c r="CK273"/>
+      <c r="CL273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B274" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -71493,13 +72278,14 @@
       <c r="CI274"/>
       <c r="CJ274"/>
       <c r="CK274"/>
+      <c r="CL274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B275" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -71588,13 +72374,14 @@
       <c r="CI275"/>
       <c r="CJ275"/>
       <c r="CK275"/>
+      <c r="CL275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B276" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -71683,13 +72470,14 @@
       <c r="CI276"/>
       <c r="CJ276"/>
       <c r="CK276"/>
+      <c r="CL276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B277" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -71778,13 +72566,14 @@
       <c r="CI277"/>
       <c r="CJ277"/>
       <c r="CK277"/>
+      <c r="CL277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B278" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -71873,13 +72662,14 @@
       <c r="CI278"/>
       <c r="CJ278"/>
       <c r="CK278"/>
+      <c r="CL278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B279" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -71968,6 +72758,7 @@
       <c r="CI279"/>
       <c r="CJ279"/>
       <c r="CK279"/>
+      <c r="CL279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
